--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.466032</v>
+        <v>0.7302023333333333</v>
       </c>
       <c r="H2">
-        <v>4.398096</v>
+        <v>2.190607</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N2">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O2">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P2">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q2">
-        <v>0.02398672690666667</v>
+        <v>0.0933463888847778</v>
       </c>
       <c r="R2">
-        <v>0.21588054216</v>
+        <v>0.8401174999630001</v>
       </c>
       <c r="S2">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="T2">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.466032</v>
+        <v>0.7302023333333333</v>
       </c>
       <c r="H3">
-        <v>4.398096</v>
+        <v>2.190607</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.350895</v>
       </c>
       <c r="O3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q3">
-        <v>0.17147443288</v>
+        <v>0.08540811591833332</v>
       </c>
       <c r="R3">
-        <v>1.54326989592</v>
+        <v>0.7686730432649999</v>
       </c>
       <c r="S3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="T3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.466032</v>
+        <v>0.7302023333333333</v>
       </c>
       <c r="H4">
-        <v>4.398096</v>
+        <v>2.190607</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N4">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q4">
-        <v>0.9843144092480001</v>
+        <v>0.03008896074811111</v>
       </c>
       <c r="R4">
-        <v>8.858829683232001</v>
+        <v>0.270800646733</v>
       </c>
       <c r="S4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="T4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.466032</v>
+        <v>0.7302023333333333</v>
       </c>
       <c r="H5">
-        <v>4.398096</v>
+        <v>2.190607</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N5">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O5">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P5">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q5">
-        <v>73.78116008032532</v>
+        <v>37.41694618200533</v>
       </c>
       <c r="R5">
-        <v>664.0304407229279</v>
+        <v>336.752515638048</v>
       </c>
       <c r="S5">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="T5">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
     </row>
   </sheetData>
